--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H2">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I2">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J2">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>12051.07147934882</v>
+        <v>12282.30556017342</v>
       </c>
       <c r="R2">
-        <v>12051.07147934882</v>
+        <v>110540.7500415608</v>
       </c>
       <c r="S2">
-        <v>0.4921608505323402</v>
+        <v>0.4893616083049745</v>
       </c>
       <c r="T2">
-        <v>0.4921608505323402</v>
+        <v>0.4893616083049745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H3">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I3">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J3">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>7244.088525659149</v>
+        <v>7261.185320857058</v>
       </c>
       <c r="R3">
-        <v>7244.088525659149</v>
+        <v>65350.66788771353</v>
       </c>
       <c r="S3">
-        <v>0.2958456247006364</v>
+        <v>0.2893060516534576</v>
       </c>
       <c r="T3">
-        <v>0.2958456247006364</v>
+        <v>0.2893060516534576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H4">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I4">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J4">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>4542.464946040508</v>
+        <v>4827.198628658716</v>
       </c>
       <c r="R4">
-        <v>4542.464946040508</v>
+        <v>43444.78765792844</v>
       </c>
       <c r="S4">
-        <v>0.1855124181437051</v>
+        <v>0.1923291741078165</v>
       </c>
       <c r="T4">
-        <v>0.1855124181437051</v>
+        <v>0.1923291741078164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H5">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I5">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J5">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>31.18661995931731</v>
+        <v>31.94977144081333</v>
       </c>
       <c r="R5">
-        <v>31.18661995931731</v>
+        <v>287.54794296732</v>
       </c>
       <c r="S5">
-        <v>0.001273648856096225</v>
+        <v>0.001272968781036578</v>
       </c>
       <c r="T5">
-        <v>0.001273648856096225</v>
+        <v>0.001272968781036578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H6">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I6">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J6">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>209.1379665575097</v>
+        <v>213.5314031381013</v>
       </c>
       <c r="R6">
-        <v>209.1379665575097</v>
+        <v>1921.782628242912</v>
       </c>
       <c r="S6">
-        <v>0.008541109367406216</v>
+        <v>0.008507691845911356</v>
       </c>
       <c r="T6">
-        <v>0.008541109367406216</v>
+        <v>0.008507691845911356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H7">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I7">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J7">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>125.716119634269</v>
+        <v>126.2377883706143</v>
       </c>
       <c r="R7">
-        <v>125.716119634269</v>
+        <v>1136.140095335529</v>
       </c>
       <c r="S7">
-        <v>0.005134195118737321</v>
+        <v>0.005029668643501371</v>
       </c>
       <c r="T7">
-        <v>0.005134195118737321</v>
+        <v>0.005029668643501371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H8">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I8">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J8">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>78.83132081671242</v>
+        <v>83.92223197460167</v>
       </c>
       <c r="R8">
-        <v>78.83132081671242</v>
+        <v>755.3000877714151</v>
       </c>
       <c r="S8">
-        <v>0.003219439032307308</v>
+        <v>0.003343697826961924</v>
       </c>
       <c r="T8">
-        <v>0.003219439032307308</v>
+        <v>0.003343697826961924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H9">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I9">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J9">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N9">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q9">
-        <v>0.5412221057082222</v>
+        <v>0.5554559355549999</v>
       </c>
       <c r="R9">
-        <v>0.5412221057082222</v>
+        <v>4.999103419995</v>
       </c>
       <c r="S9">
-        <v>2.210329034465705E-05</v>
+        <v>2.213092718089819E-05</v>
       </c>
       <c r="T9">
-        <v>2.210329034465705E-05</v>
+        <v>2.213092718089819E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4549475122876</v>
+        <v>0.08127666666666666</v>
       </c>
       <c r="H10">
-        <v>0.4549475122876</v>
+        <v>0.24383</v>
       </c>
       <c r="I10">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="J10">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N10">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q10">
-        <v>102.4943677129726</v>
+        <v>18.65987512401778</v>
       </c>
       <c r="R10">
-        <v>102.4943677129726</v>
+        <v>167.93887611616</v>
       </c>
       <c r="S10">
-        <v>0.004185828229036176</v>
+        <v>0.0007434619222525181</v>
       </c>
       <c r="T10">
-        <v>0.004185828229036176</v>
+        <v>0.0007434619222525181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4549475122876</v>
+        <v>0.08127666666666666</v>
       </c>
       <c r="H11">
-        <v>0.4549475122876</v>
+        <v>0.24383</v>
       </c>
       <c r="I11">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="J11">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N11">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q11">
-        <v>61.61097578473201</v>
+        <v>11.03154539477444</v>
       </c>
       <c r="R11">
-        <v>61.61097578473201</v>
+        <v>99.28390855296998</v>
       </c>
       <c r="S11">
-        <v>0.00251616715545194</v>
+        <v>0.0004395278044523695</v>
       </c>
       <c r="T11">
-        <v>0.00251616715545194</v>
+        <v>0.0004395278044523695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4549475122876</v>
+        <v>0.08127666666666666</v>
       </c>
       <c r="H12">
-        <v>0.4549475122876</v>
+        <v>0.24383</v>
       </c>
       <c r="I12">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="J12">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N12">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q12">
-        <v>38.63366616824032</v>
+        <v>7.333714600105556</v>
       </c>
       <c r="R12">
-        <v>38.63366616824032</v>
+        <v>66.00343140095001</v>
       </c>
       <c r="S12">
-        <v>0.001577783189911929</v>
+        <v>0.000292195822191111</v>
       </c>
       <c r="T12">
-        <v>0.001577783189911929</v>
+        <v>0.000292195822191111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08127666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.24383</v>
+      </c>
+      <c r="I13">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="J13">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.791645</v>
+      </c>
+      <c r="O13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q13">
+        <v>0.04853964448333332</v>
+      </c>
+      <c r="R13">
+        <v>0.43685680035</v>
+      </c>
+      <c r="S13">
+        <v>1.933955996660637E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.933955996660637E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.102062</v>
+      </c>
+      <c r="I14">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J14">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N14">
+        <v>688.753952</v>
+      </c>
+      <c r="O14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q14">
+        <v>7.810622872113777</v>
+      </c>
+      <c r="R14">
+        <v>70.295605849024</v>
+      </c>
+      <c r="S14">
+        <v>0.0003111971894719129</v>
+      </c>
+      <c r="T14">
+        <v>0.0003111971894719129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.102062</v>
+      </c>
+      <c r="I15">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J15">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N15">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q15">
+        <v>4.617567920606443</v>
+      </c>
+      <c r="R15">
+        <v>41.55811128545799</v>
+      </c>
+      <c r="S15">
+        <v>0.0001839768969282604</v>
+      </c>
+      <c r="T15">
+        <v>0.0001839768969282604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.102062</v>
+      </c>
+      <c r="I16">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J16">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N16">
+        <v>270.694465</v>
+      </c>
+      <c r="O16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q16">
+        <v>3.069735387425556</v>
+      </c>
+      <c r="R16">
+        <v>27.62761848683</v>
+      </c>
+      <c r="S16">
+        <v>0.0001223068941658909</v>
+      </c>
+      <c r="T16">
+        <v>0.0001223068941658909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.102062</v>
+      </c>
+      <c r="I17">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J17">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.02031765244333333</v>
+      </c>
+      <c r="R17">
+        <v>0.18285887199</v>
+      </c>
+      <c r="S17">
+        <v>8.095124346109091E-07</v>
+      </c>
+      <c r="T17">
+        <v>8.095124346109091E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.441336</v>
+      </c>
+      <c r="I18">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J18">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N18">
+        <v>688.753952</v>
+      </c>
+      <c r="O18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q18">
+        <v>110.3028740177636</v>
+      </c>
+      <c r="R18">
+        <v>992.725866159872</v>
+      </c>
+      <c r="S18">
+        <v>0.00439477682472114</v>
+      </c>
+      <c r="T18">
+        <v>0.00439477682472114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4549475122876</v>
-      </c>
-      <c r="H13">
-        <v>0.4549475122876</v>
-      </c>
-      <c r="I13">
-        <v>0.00829061095842645</v>
-      </c>
-      <c r="J13">
-        <v>0.00829061095842645</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N13">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O13">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P13">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q13">
-        <v>0.2652422151268927</v>
-      </c>
-      <c r="R13">
-        <v>0.2652422151268927</v>
-      </c>
-      <c r="S13">
-        <v>1.083238402640254E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.083238402640254E-05</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.441336</v>
+      </c>
+      <c r="I19">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J19">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N19">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q19">
+        <v>65.21003778502488</v>
+      </c>
+      <c r="R19">
+        <v>586.8903400652239</v>
+      </c>
+      <c r="S19">
+        <v>0.002598151365944143</v>
+      </c>
+      <c r="T19">
+        <v>0.002598151365944143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.441336</v>
+      </c>
+      <c r="I20">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J20">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N20">
+        <v>270.694465</v>
+      </c>
+      <c r="O20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q20">
+        <v>43.35129748947111</v>
+      </c>
+      <c r="R20">
+        <v>390.16167740524</v>
+      </c>
+      <c r="S20">
+        <v>0.001727237655635677</v>
+      </c>
+      <c r="T20">
+        <v>0.001727237655635677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.441336</v>
+      </c>
+      <c r="I21">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J21">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.791645</v>
+      </c>
+      <c r="O21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q21">
+        <v>0.2869291597466667</v>
+      </c>
+      <c r="R21">
+        <v>2.58236243772</v>
+      </c>
+      <c r="S21">
+        <v>1.14320649649463E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.14320649649463E-05</v>
       </c>
     </row>
   </sheetData>
